--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_9_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329283.5005657457</v>
+        <v>251072.4815573021</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10585672.09736458</v>
+        <v>10516019.3324238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12627104.1626928</v>
+        <v>10791186.65737768</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7402239.18492086</v>
+        <v>8245320.7960716</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>263.7138800015061</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>116.9725659584294</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H11" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>106.3922549181109</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>146.5375840460782</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1542,16 +1542,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>126.4617428240381</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>17.7236023690854</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>116.9725659584295</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1672,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>263.7138800015063</v>
+        <v>137.663455629278</v>
       </c>
     </row>
     <row r="15">
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>125.9200896279071</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T15" t="n">
-        <v>194.8409875848768</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>79.63579206135151</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U16" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.0331037720979</v>
       </c>
     </row>
     <row r="17">
@@ -1846,19 +1846,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>263.7138800015063</v>
+        <v>239.0538102845555</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>263.7138800015063</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>232.2791855053266</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>263.7138800015063</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V18" t="n">
-        <v>169.4091374245505</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -2004,19 +2004,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>102.0276666135364</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U19" t="n">
-        <v>263.7138800015063</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>108.5156050399342</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>152.7183878367605</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>130.1233253822471</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,22 +2165,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T21" t="n">
-        <v>175.1758420150669</v>
+        <v>192.0665623188213</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8352527003384</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,22 +2241,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>78.45184547595045</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.6385546828073</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>102.9735244656999</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>116.4834600519698</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>118.4535900056845</v>
+        <v>221.2171721544528</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>39.54353743757386</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>47.65883542934908</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>334.4609498011895</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>5.713735654019443</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>135.3343964518633</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H27" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269607</v>
       </c>
       <c r="I27" t="n">
         <v>20.22295923705015</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>23.7366424389918</v>
       </c>
       <c r="E28" t="n">
-        <v>55.92427447184515</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>268.987598103758</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.547702772954</v>
@@ -2812,7 +2812,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.300193160553249</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2876,7 +2876,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>70.97606006892687</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>79.41653965146482</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>64.78910094740705</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>224.7543248662171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.41653965146493</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
         <v>220.7486959972119</v>
@@ -3246,16 +3246,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>60.28710732476594</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.4662004992324</v>
+        <v>211.6246176134839</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H36" t="n">
-        <v>92.83156789269607</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
         <v>20.22295923705015</v>
@@ -3444,7 +3444,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I37" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>169.3666852850171</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>69.53104947294197</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>337.3709850838601</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>213.9187696850664</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>169.3666852850171</v>
       </c>
       <c r="X40" t="n">
-        <v>210.1527391926645</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>27.20244590129779</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.33441341796887</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923704908</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T42" t="n">
         <v>192.0665623188214</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.2422829843861</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>133.858635603873</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247047</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>141.6440844136824</v>
       </c>
       <c r="U44" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>280.8123722162927</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.9184145500498</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>33.99895236607887</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
         <v>286.2271541212006</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>788.4778634388466</v>
+        <v>1646.341654153232</v>
       </c>
       <c r="C11" t="n">
-        <v>522.1002068716687</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D11" t="n">
-        <v>522.1002068716687</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E11" t="n">
-        <v>522.1002068716687</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="F11" t="n">
-        <v>522.1002068716687</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G11" t="n">
-        <v>403.9460998429521</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5684432757742</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I11" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917624</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2640879052547</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515912</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030611</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991323</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358418</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P11" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q11" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R11" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S11" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T11" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U11" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V11" t="n">
-        <v>1054.855520006025</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W11" t="n">
-        <v>1054.855520006025</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X11" t="n">
-        <v>1054.855520006025</v>
+        <v>1646.341654153232</v>
       </c>
       <c r="Y11" t="n">
-        <v>1054.855520006025</v>
+        <v>1646.341654153232</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>169.1148720628257</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C12" t="n">
-        <v>169.1148720628257</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D12" t="n">
-        <v>21.09711040012049</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E12" t="n">
-        <v>21.09711040012049</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F12" t="n">
-        <v>21.09711040012049</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G12" t="n">
-        <v>21.09711040012049</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H12" t="n">
-        <v>21.09711040012049</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I12" t="n">
-        <v>21.09711040012049</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J12" t="n">
-        <v>21.09711040012049</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K12" t="n">
-        <v>95.78113116957459</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L12" t="n">
-        <v>338.8740072302313</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4746963267551</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N12" t="n">
-        <v>739.52866342936</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O12" t="n">
-        <v>909.4672107560897</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P12" t="n">
-        <v>1026.524810789493</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q12" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R12" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S12" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T12" t="n">
-        <v>1054.855520006025</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U12" t="n">
-        <v>826.7196740428381</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V12" t="n">
-        <v>591.5675658110954</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W12" t="n">
-        <v>337.3302090828938</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X12" t="n">
-        <v>337.3302090828938</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y12" t="n">
-        <v>337.3302090828938</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>927.1163858403295</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C13" t="n">
-        <v>927.1163858403295</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D13" t="n">
-        <v>776.9997464279937</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E13" t="n">
-        <v>629.0866528456006</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F13" t="n">
-        <v>482.1967053476902</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G13" t="n">
-        <v>313.6273447026937</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H13" t="n">
-        <v>159.7059716361717</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I13" t="n">
-        <v>36.32155393434485</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J13" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K13" t="n">
-        <v>126.4133765287946</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L13" t="n">
-        <v>316.7083726551008</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M13" t="n">
-        <v>527.7368878375335</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227044</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075543</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P13" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q13" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R13" t="n">
-        <v>927.1163858403295</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S13" t="n">
-        <v>927.1163858403295</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T13" t="n">
-        <v>927.1163858403295</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U13" t="n">
-        <v>927.1163858403295</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V13" t="n">
-        <v>927.1163858403295</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W13" t="n">
-        <v>927.1163858403295</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X13" t="n">
-        <v>927.1163858403295</v>
+        <v>864.6537434744307</v>
       </c>
       <c r="Y13" t="n">
-        <v>927.1163858403295</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>403.9460998429522</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C14" t="n">
-        <v>403.9460998429522</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D14" t="n">
-        <v>403.9460998429522</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E14" t="n">
-        <v>137.5684432757741</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F14" t="n">
-        <v>137.5684432757741</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G14" t="n">
-        <v>137.5684432757741</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5684432757741</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I14" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J14" t="n">
-        <v>49.28269087917556</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K14" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L14" t="n">
-        <v>294.5174947515906</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M14" t="n">
-        <v>495.5981834030605</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N14" t="n">
-        <v>704.5463761991317</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O14" t="n">
-        <v>888.5149683358416</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P14" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q14" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R14" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S14" t="n">
-        <v>936.7014129773083</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T14" t="n">
-        <v>936.7014129773083</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U14" t="n">
-        <v>936.7014129773083</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V14" t="n">
-        <v>936.7014129773083</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W14" t="n">
-        <v>936.7014129773083</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="X14" t="n">
-        <v>936.7014129773083</v>
+        <v>1810.593301929725</v>
       </c>
       <c r="Y14" t="n">
-        <v>670.3237564101303</v>
+        <v>1671.539306344596</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>481.9796044118618</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C15" t="n">
-        <v>307.5265751307347</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D15" t="n">
-        <v>307.5265751307347</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E15" t="n">
-        <v>148.2891201252792</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F15" t="n">
-        <v>148.2891201252792</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G15" t="n">
-        <v>21.0971104001205</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H15" t="n">
-        <v>21.0971104001205</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I15" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J15" t="n">
-        <v>21.0971104001205</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K15" t="n">
-        <v>95.78113116957469</v>
+        <v>551.287634790747</v>
       </c>
       <c r="L15" t="n">
-        <v>242.5255548298714</v>
+        <v>845.9911918222188</v>
       </c>
       <c r="M15" t="n">
-        <v>433.1262439263952</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N15" t="n">
-        <v>643.1802110290002</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O15" t="n">
-        <v>813.1187583557301</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P15" t="n">
-        <v>930.1763583891336</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q15" t="n">
-        <v>1054.855520006025</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R15" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S15" t="n">
-        <v>1054.855520006025</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T15" t="n">
-        <v>858.0464416374626</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U15" t="n">
-        <v>858.0464416374626</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V15" t="n">
-        <v>858.0464416374626</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W15" t="n">
-        <v>858.0464416374626</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X15" t="n">
-        <v>650.1949414319298</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y15" t="n">
-        <v>650.1949414319298</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.0971104001205</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0971104001205</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D16" t="n">
-        <v>21.0971104001205</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E16" t="n">
-        <v>21.0971104001205</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F16" t="n">
-        <v>21.0971104001205</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G16" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H16" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I16" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J16" t="n">
-        <v>21.0971104001205</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4133765287949</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L16" t="n">
-        <v>316.7083726551011</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M16" t="n">
-        <v>527.7368878375338</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N16" t="n">
-        <v>739.1822330227048</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O16" t="n">
-        <v>918.4699372075545</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P16" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q16" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R16" t="n">
-        <v>974.4153260046598</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S16" t="n">
-        <v>767.6282914151711</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T16" t="n">
-        <v>542.1592551731854</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U16" t="n">
-        <v>275.7815986060074</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V16" t="n">
-        <v>21.0971104001205</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W16" t="n">
-        <v>21.0971104001205</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="X16" t="n">
-        <v>21.0971104001205</v>
+        <v>1185.478088371215</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.0971104001205</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>553.8524235344767</v>
+        <v>1488.368453810658</v>
       </c>
       <c r="C17" t="n">
-        <v>553.8524235344767</v>
+        <v>1119.405936870247</v>
       </c>
       <c r="D17" t="n">
-        <v>553.8524235344767</v>
+        <v>1119.405936870247</v>
       </c>
       <c r="E17" t="n">
-        <v>287.4747669672986</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F17" t="n">
-        <v>287.4747669672986</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G17" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H17" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I17" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J17" t="n">
-        <v>49.28269087917556</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K17" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L17" t="n">
-        <v>294.5174947515906</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M17" t="n">
-        <v>495.5981834030605</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N17" t="n">
-        <v>704.5463761991317</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O17" t="n">
-        <v>888.5149683358416</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P17" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q17" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R17" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S17" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T17" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U17" t="n">
-        <v>820.2300801016547</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V17" t="n">
-        <v>820.2300801016547</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W17" t="n">
-        <v>820.2300801016547</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X17" t="n">
-        <v>820.2300801016547</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="Y17" t="n">
-        <v>553.8524235344767</v>
+        <v>1488.368453810658</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>195.5501396812475</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C18" t="n">
-        <v>21.0971104001205</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D18" t="n">
-        <v>21.0971104001205</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E18" t="n">
-        <v>21.0971104001205</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F18" t="n">
-        <v>21.0971104001205</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G18" t="n">
-        <v>21.0971104001205</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H18" t="n">
-        <v>21.0971104001205</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I18" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J18" t="n">
-        <v>117.4455628004804</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K18" t="n">
-        <v>192.1295835699346</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L18" t="n">
-        <v>338.8740072302313</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4746963267552</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N18" t="n">
-        <v>739.5286634293602</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O18" t="n">
-        <v>909.46721075609</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P18" t="n">
-        <v>1026.524810789494</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1054.855520006025</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R18" t="n">
-        <v>1036.519636212815</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S18" t="n">
-        <v>1036.519636212815</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T18" t="n">
-        <v>1036.519636212815</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U18" t="n">
-        <v>1036.519636212815</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V18" t="n">
-        <v>865.3992953799359</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W18" t="n">
-        <v>611.1619386517343</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X18" t="n">
-        <v>403.3104384462014</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y18" t="n">
-        <v>195.5501396812475</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21.0971104001205</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C19" t="n">
-        <v>21.0971104001205</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D19" t="n">
-        <v>21.0971104001205</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E19" t="n">
-        <v>21.0971104001205</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F19" t="n">
-        <v>21.0971104001205</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G19" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H19" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I19" t="n">
-        <v>21.0971104001205</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J19" t="n">
-        <v>21.0971104001205</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K19" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L19" t="n">
-        <v>316.708372655101</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M19" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N19" t="n">
-        <v>739.1822330227047</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O19" t="n">
-        <v>918.4699372075544</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P19" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q19" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R19" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S19" t="n">
-        <v>951.7972709014425</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T19" t="n">
-        <v>951.7972709014425</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U19" t="n">
-        <v>685.4196143342645</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V19" t="n">
-        <v>430.7351261283775</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W19" t="n">
-        <v>430.7351261283775</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="X19" t="n">
-        <v>202.7455752303602</v>
+        <v>1014.73757951051</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.7455752303602</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>556.9527258178798</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="C20" t="n">
-        <v>187.9902088774681</v>
+        <v>1342.443190455019</v>
       </c>
       <c r="D20" t="n">
-        <v>187.9902088774681</v>
+        <v>984.1774918482688</v>
       </c>
       <c r="E20" t="n">
-        <v>187.9902088774681</v>
+        <v>598.3892392500245</v>
       </c>
       <c r="F20" t="n">
-        <v>187.9902088774681</v>
+        <v>598.3892392500245</v>
       </c>
       <c r="G20" t="n">
-        <v>33.72921106255855</v>
+        <v>182.6844889743134</v>
       </c>
       <c r="H20" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I20" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J20" t="n">
-        <v>107.8290791267618</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K20" t="n">
-        <v>269.6240911917569</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L20" t="n">
-        <v>507.2468724099484</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M20" t="n">
-        <v>803.3174389675509</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N20" t="n">
-        <v>1108.792545203136</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O20" t="n">
-        <v>1383.90876451977</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P20" t="n">
-        <v>1584.213091808873</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q20" t="n">
-        <v>1686.460553127927</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R20" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S20" t="n">
-        <v>1686.460553127927</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T20" t="n">
-        <v>1686.460553127927</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U20" t="n">
-        <v>1686.460553127927</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V20" t="n">
-        <v>1686.460553127927</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="W20" t="n">
-        <v>1333.691897857813</v>
+        <v>2084.871465656511</v>
       </c>
       <c r="X20" t="n">
-        <v>1333.691897857813</v>
+        <v>1711.405707395431</v>
       </c>
       <c r="Y20" t="n">
-        <v>943.5525658820015</v>
+        <v>1711.405707395431</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>208.1822403436856</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C21" t="n">
-        <v>33.72921106255855</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D21" t="n">
-        <v>33.72921106255855</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E21" t="n">
-        <v>33.72921106255855</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F21" t="n">
-        <v>33.72921106255855</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G21" t="n">
-        <v>33.72921106255855</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H21" t="n">
-        <v>33.72921106255855</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I21" t="n">
-        <v>33.72921106255855</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J21" t="n">
-        <v>121.7846078506388</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K21" t="n">
-        <v>243.2077001209177</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L21" t="n">
-        <v>452.7985733737483</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M21" t="n">
-        <v>716.7381048692356</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N21" t="n">
-        <v>1002.071975302568</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O21" t="n">
-        <v>1240.876927054027</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P21" t="n">
-        <v>1413.205888007736</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q21" t="n">
-        <v>1686.460553127927</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R21" t="n">
-        <v>1686.460553127927</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S21" t="n">
-        <v>1686.460553127927</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T21" t="n">
-        <v>1509.515258163213</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U21" t="n">
-        <v>1281.398841294185</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V21" t="n">
-        <v>1046.246733062442</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W21" t="n">
-        <v>792.0093763342404</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X21" t="n">
-        <v>584.1578761287076</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y21" t="n">
-        <v>376.3975773637536</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1166.359448495602</v>
+        <v>425.2941160078525</v>
       </c>
       <c r="C22" t="n">
-        <v>997.4232655676954</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D22" t="n">
-        <v>847.3066261553596</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E22" t="n">
-        <v>699.3935325729665</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F22" t="n">
-        <v>699.3935325729665</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G22" t="n">
-        <v>531.0717601660904</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H22" t="n">
-        <v>427.0580990896258</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I22" t="n">
-        <v>427.0580990896258</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J22" t="n">
-        <v>429.2927710969901</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K22" t="n">
-        <v>562.8018603827933</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L22" t="n">
-        <v>789.1739637009373</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M22" t="n">
-        <v>1038.240730033478</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N22" t="n">
-        <v>1286.819861776078</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O22" t="n">
-        <v>1500.406628124233</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P22" t="n">
-        <v>1659.646322760277</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q22" t="n">
-        <v>1686.460553127927</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R22" t="n">
-        <v>1568.800492469372</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S22" t="n">
-        <v>1568.800492469372</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T22" t="n">
-        <v>1568.800492469372</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U22" t="n">
-        <v>1568.800492469372</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V22" t="n">
-        <v>1568.800492469372</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.800492469372</v>
+        <v>834.9321317361096</v>
       </c>
       <c r="X22" t="n">
-        <v>1568.800492469372</v>
+        <v>606.9425808380922</v>
       </c>
       <c r="Y22" t="n">
-        <v>1348.007913325842</v>
+        <v>606.9425808380922</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1753.80857831294</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C23" t="n">
-        <v>1753.80857831294</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D23" t="n">
-        <v>1634.158487398107</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="E23" t="n">
-        <v>1248.370234799863</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="F23" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G23" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H23" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I23" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M23" t="n">
         <v>1220.470313923562</v>
@@ -6016,25 +6016,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.577233583054</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W23" t="n">
-        <v>1753.80857831294</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X23" t="n">
-        <v>1753.80857831294</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y23" t="n">
-        <v>1753.80857831294</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I24" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
         <v>113.5972052500113</v>
@@ -6086,10 +6086,10 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P24" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q24" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R24" t="n">
         <v>2562.339328400155</v>
@@ -6101,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6110,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.2467865680031</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C25" t="n">
-        <v>51.2467865680031</v>
+        <v>513.7702631754854</v>
       </c>
       <c r="D25" t="n">
-        <v>51.2467865680031</v>
+        <v>513.7702631754854</v>
       </c>
       <c r="E25" t="n">
-        <v>51.2467865680031</v>
+        <v>513.7702631754854</v>
       </c>
       <c r="F25" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G25" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H25" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I25" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K25" t="n">
         <v>248.4064713020475</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T25" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U25" t="n">
-        <v>825.1371474485136</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V25" t="n">
-        <v>570.4526592426267</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W25" t="n">
-        <v>281.0354892056661</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X25" t="n">
-        <v>232.8952513982428</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y25" t="n">
-        <v>232.8952513982428</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>850.6201014348521</v>
+        <v>1532.019095624401</v>
       </c>
       <c r="C26" t="n">
-        <v>481.6575844944404</v>
+        <v>1163.05657868399</v>
       </c>
       <c r="D26" t="n">
-        <v>123.3918858876899</v>
+        <v>804.7908800772391</v>
       </c>
       <c r="E26" t="n">
-        <v>123.3918858876899</v>
+        <v>804.7908800772391</v>
       </c>
       <c r="F26" t="n">
-        <v>123.3918858876899</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G26" t="n">
-        <v>123.3918858876899</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H26" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I26" t="n">
         <v>51.2467865680031</v>
@@ -6232,10 +6232,10 @@
         <v>442.517185281608</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N26" t="n">
         <v>1656.671415230817</v>
@@ -6256,22 +6256,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V26" t="n">
-        <v>2353.59368700598</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W26" t="n">
-        <v>2000.825031735865</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X26" t="n">
-        <v>1627.359273474786</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y26" t="n">
-        <v>1237.219941498974</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="27">
@@ -6296,7 +6296,7 @@
         <v>302.1446891756897</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H27" t="n">
         <v>71.67401812057901</v>
@@ -6305,28 +6305,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J27" t="n">
-        <v>158.5894986512065</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K27" t="n">
-        <v>343.3111199322565</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L27" t="n">
-        <v>638.0146769637281</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M27" t="n">
-        <v>1001.276695922948</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N27" t="n">
-        <v>1635.455679701987</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O27" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P27" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
         <v>2562.339328400155</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>827.323049110248</v>
+        <v>75.22319307203523</v>
       </c>
       <c r="C28" t="n">
-        <v>827.323049110248</v>
+        <v>75.22319307203523</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2064096979122</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E28" t="n">
-        <v>620.7172435647353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F28" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G28" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H28" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I28" t="n">
         <v>51.2467865680031</v>
@@ -6411,25 +6411,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S28" t="n">
-        <v>1337.23396574994</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T28" t="n">
-        <v>1337.23396574994</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U28" t="n">
-        <v>1048.115628253778</v>
+        <v>1021.765895288652</v>
       </c>
       <c r="V28" t="n">
-        <v>1048.115628253778</v>
+        <v>767.0814070827656</v>
       </c>
       <c r="W28" t="n">
-        <v>1048.115628253778</v>
+        <v>477.664237045805</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.115628253778</v>
+        <v>477.664237045805</v>
       </c>
       <c r="Y28" t="n">
-        <v>827.323049110248</v>
+        <v>256.8716579022749</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1042.715325395395</v>
+        <v>1918.618935688523</v>
       </c>
       <c r="C29" t="n">
-        <v>1042.715325395395</v>
+        <v>1549.656418748111</v>
       </c>
       <c r="D29" t="n">
-        <v>1042.715325395395</v>
+        <v>1191.390720141361</v>
       </c>
       <c r="E29" t="n">
-        <v>1042.715325395395</v>
+        <v>1191.390720141361</v>
       </c>
       <c r="F29" t="n">
-        <v>771.0106808461439</v>
+        <v>780.4048153517533</v>
       </c>
       <c r="G29" t="n">
-        <v>355.3059305704328</v>
+        <v>364.7000650760422</v>
       </c>
       <c r="H29" t="n">
-        <v>51.2467865680031</v>
+        <v>60.64092107361245</v>
       </c>
       <c r="I29" t="n">
         <v>51.2467865680031</v>
@@ -6466,10 +6466,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K29" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M29" t="n">
         <v>1220.470313923562</v>
@@ -6493,22 +6493,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2100.012626270159</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V29" t="n">
-        <v>1768.949738926588</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W29" t="n">
-        <v>1416.181083656474</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X29" t="n">
-        <v>1042.715325395395</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y29" t="n">
-        <v>1042.715325395395</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D30" t="n">
         <v>607.9167021542605</v>
@@ -6545,25 +6545,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K30" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L30" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M30" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6575,7 +6575,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
@@ -6584,7 +6584,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>977.1399948936613</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C31" t="n">
-        <v>977.1399948936613</v>
+        <v>644.9053651971361</v>
       </c>
       <c r="D31" t="n">
-        <v>977.1399948936613</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E31" t="n">
-        <v>977.1399948936613</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F31" t="n">
-        <v>977.1399948936613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G31" t="n">
-        <v>977.1399948936613</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H31" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I31" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J31" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K31" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L31" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M31" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N31" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P31" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q31" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>2482.120601479483</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>2259.142120674219</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U31" t="n">
-        <v>1970.023783178056</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.339294972169</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W31" t="n">
-        <v>1425.922124935209</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X31" t="n">
-        <v>1197.932574037191</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y31" t="n">
-        <v>977.1399948936613</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1575.249159503017</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.286642562605</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="D32" t="n">
-        <v>848.0209439558548</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E32" t="n">
-        <v>462.2326913576106</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F32" t="n">
-        <v>51.2467865680031</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G32" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H32" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
         <v>51.2467865680031</v>
@@ -6703,10 +6703,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816086</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M32" t="n">
         <v>1220.470313923562</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U32" t="n">
-        <v>2562.339328400155</v>
+        <v>2372.196584616113</v>
       </c>
       <c r="V32" t="n">
-        <v>2562.339328400155</v>
+        <v>2041.133697272542</v>
       </c>
       <c r="W32" t="n">
-        <v>2562.339328400155</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="X32" t="n">
-        <v>2188.873570139075</v>
+        <v>1688.365042002428</v>
       </c>
       <c r="Y32" t="n">
-        <v>1961.848999567139</v>
+        <v>1688.365042002428</v>
       </c>
     </row>
     <row r="33">
@@ -6755,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D33" t="n">
         <v>607.9167021542605</v>
@@ -6767,10 +6767,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
         <v>71.67401812057901</v>
@@ -6782,25 +6782,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K33" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L33" t="n">
-        <v>932.4978103100997</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M33" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N33" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O33" t="n">
-        <v>2015.115393042426</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400155</v>
@@ -6818,7 +6818,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
         <v>1307.279776881661</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>977.1399948936613</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C34" t="n">
-        <v>977.1399948936613</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D34" t="n">
-        <v>977.1399948936613</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E34" t="n">
-        <v>977.1399948936613</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F34" t="n">
-        <v>977.1399948936613</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I34" t="n">
-        <v>977.1399948936613</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J34" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K34" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L34" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M34" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N34" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O34" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P34" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R34" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>2562.339328400155</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T34" t="n">
-        <v>2339.36084759489</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>2050.242510098728</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V34" t="n">
-        <v>1795.558021892841</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W34" t="n">
-        <v>1506.14085185588</v>
+        <v>866.8244859281173</v>
       </c>
       <c r="X34" t="n">
-        <v>1278.151300957863</v>
+        <v>866.8244859281173</v>
       </c>
       <c r="Y34" t="n">
-        <v>1057.358721814333</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1498.238896393306</v>
+        <v>1082.534146117595</v>
       </c>
       <c r="C35" t="n">
-        <v>1129.276379452894</v>
+        <v>713.5716291771834</v>
       </c>
       <c r="D35" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E35" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F35" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G35" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I35" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J35" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M35" t="n">
         <v>1220.470313923562</v>
@@ -6967,22 +6967,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T35" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U35" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V35" t="n">
-        <v>2231.276441056584</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W35" t="n">
-        <v>1878.50778578647</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X35" t="n">
-        <v>1878.50778578647</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y35" t="n">
-        <v>1878.50778578647</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.1446891756897</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J36" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K36" t="n">
-        <v>298.3188265310613</v>
+        <v>507.241398742976</v>
       </c>
       <c r="L36" t="n">
-        <v>932.4978103100997</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M36" t="n">
-        <v>1295.75982926932</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N36" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O36" t="n">
-        <v>2015.115393042426</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P36" t="n">
         <v>2447.023413292609</v>
@@ -7049,16 +7049,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
         <v>1099.519478116707</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>940.7932119894607</v>
+        <v>834.9380653188541</v>
       </c>
       <c r="C37" t="n">
-        <v>771.8570290615538</v>
+        <v>666.0018823909472</v>
       </c>
       <c r="D37" t="n">
-        <v>621.7403896492181</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E37" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F37" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G37" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H37" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I37" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J37" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K37" t="n">
         <v>248.4064713020475</v>
@@ -7125,22 +7125,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T37" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U37" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V37" t="n">
-        <v>1413.467639269232</v>
+        <v>1465.368660190641</v>
       </c>
       <c r="W37" t="n">
-        <v>1413.467639269232</v>
+        <v>1465.368660190641</v>
       </c>
       <c r="X37" t="n">
-        <v>1343.23425596323</v>
+        <v>1237.379109292624</v>
       </c>
       <c r="Y37" t="n">
-        <v>1122.4416768197</v>
+        <v>1016.586530149094</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1505.042027525389</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="C38" t="n">
-        <v>1136.079510584978</v>
+        <v>1011.380303111449</v>
       </c>
       <c r="D38" t="n">
-        <v>777.8138119782272</v>
+        <v>653.1146045046983</v>
       </c>
       <c r="E38" t="n">
-        <v>392.025559379983</v>
+        <v>267.326351906454</v>
       </c>
       <c r="F38" t="n">
-        <v>392.025559379983</v>
+        <v>267.326351906454</v>
       </c>
       <c r="G38" t="n">
-        <v>51.24678656800308</v>
+        <v>267.326351906454</v>
       </c>
       <c r="H38" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816079</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T38" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U38" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V38" t="n">
-        <v>2231.276441056583</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W38" t="n">
-        <v>1878.507785786469</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X38" t="n">
-        <v>1505.042027525389</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y38" t="n">
-        <v>1505.042027525389</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G39" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J39" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310612</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L39" t="n">
-        <v>932.4978103100993</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M39" t="n">
-        <v>1295.759829269319</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N39" t="n">
-        <v>1683.044957866265</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O39" t="n">
-        <v>2015.115393042426</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P39" t="n">
         <v>2447.023413292609</v>
@@ -7286,7 +7286,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
@@ -7295,7 +7295,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>367.9721493962183</v>
+        <v>834.9380653188541</v>
       </c>
       <c r="C40" t="n">
-        <v>367.9721493962183</v>
+        <v>666.0018823909472</v>
       </c>
       <c r="D40" t="n">
-        <v>367.9721493962183</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E40" t="n">
-        <v>367.9721493962183</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F40" t="n">
-        <v>367.9721493962183</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G40" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H40" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800308</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J40" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020475</v>
@@ -7362,22 +7362,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1413.467639269232</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U40" t="n">
-        <v>1124.34930177307</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V40" t="n">
-        <v>869.6648135671834</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W40" t="n">
-        <v>580.2476435302228</v>
+        <v>1465.368660190641</v>
       </c>
       <c r="X40" t="n">
-        <v>367.9721493962183</v>
+        <v>1237.379109292624</v>
       </c>
       <c r="Y40" t="n">
-        <v>367.9721493962183</v>
+        <v>1016.586530149094</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>472.339833225501</v>
+        <v>872.3258693613959</v>
       </c>
       <c r="C41" t="n">
-        <v>472.339833225501</v>
+        <v>503.3633524209842</v>
       </c>
       <c r="D41" t="n">
-        <v>472.339833225501</v>
+        <v>145.0976538142337</v>
       </c>
       <c r="E41" t="n">
-        <v>472.339833225501</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F41" t="n">
-        <v>472.339833225501</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G41" t="n">
-        <v>56.63508294978982</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H41" t="n">
-        <v>56.63508294978982</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I41" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816093</v>
       </c>
       <c r="L41" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872929</v>
       </c>
       <c r="M41" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N41" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O41" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P41" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q41" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R41" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T41" t="n">
-        <v>2228.894479532449</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U41" t="n">
-        <v>1975.313418796628</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V41" t="n">
-        <v>1975.313418796628</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W41" t="n">
-        <v>1622.544763526514</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.079005265434</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y41" t="n">
-        <v>858.9396732896228</v>
+        <v>1258.925709425518</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966375</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155105</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542593</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E42" t="n">
-        <v>448.6792471488038</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756888</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
-        <v>165.4432786182509</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057791</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I42" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J42" t="n">
-        <v>238.427330237016</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K42" t="n">
-        <v>590.2049751143487</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L42" t="n">
-        <v>884.9085321458203</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M42" t="n">
-        <v>1248.17055110504</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.455679701986</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O42" t="n">
-        <v>1967.526114878147</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710444</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676481</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R42" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S42" t="n">
-        <v>2426.617474780095</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.610846175225</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.368633815394</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087192</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881659</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.519478116706</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1058.385646240662</v>
+        <v>354.4439942939397</v>
       </c>
       <c r="C43" t="n">
-        <v>918.7469765594642</v>
+        <v>354.4439942939397</v>
       </c>
       <c r="D43" t="n">
-        <v>768.6303371471284</v>
+        <v>354.4439942939397</v>
       </c>
       <c r="E43" t="n">
-        <v>620.7172435647353</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F43" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H43" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I43" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J43" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K43" t="n">
         <v>248.4064713020475</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T43" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U43" t="n">
-        <v>1533.862713590079</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V43" t="n">
-        <v>1279.178225384192</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W43" t="n">
-        <v>1279.178225384192</v>
+        <v>803.2261243354872</v>
       </c>
       <c r="X43" t="n">
-        <v>1279.178225384192</v>
+        <v>575.2365734374698</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.385646240662</v>
+        <v>354.4439942939397</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1248.370234799863</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="C44" t="n">
-        <v>1248.370234799863</v>
+        <v>1277.379137212821</v>
       </c>
       <c r="D44" t="n">
-        <v>1248.370234799863</v>
+        <v>919.1134386060701</v>
       </c>
       <c r="E44" t="n">
-        <v>1248.370234799863</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="F44" t="n">
-        <v>837.3843300102556</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G44" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H44" t="n">
         <v>117.6204357321147</v>
@@ -7675,25 +7675,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S44" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2294.565288185532</v>
       </c>
       <c r="U44" t="n">
-        <v>2308.758267664335</v>
+        <v>2040.984227449712</v>
       </c>
       <c r="V44" t="n">
-        <v>2025.109406839797</v>
+        <v>2040.984227449712</v>
       </c>
       <c r="W44" t="n">
-        <v>2025.109406839797</v>
+        <v>2040.984227449712</v>
       </c>
       <c r="X44" t="n">
-        <v>2025.109406839797</v>
+        <v>1667.518469188632</v>
       </c>
       <c r="Y44" t="n">
-        <v>1634.970074863985</v>
+        <v>1277.379137212821</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>298.3188265310614</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L45" t="n">
-        <v>932.4978103100998</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M45" t="n">
-        <v>1295.75982926932</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N45" t="n">
-        <v>1683.044957866265</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O45" t="n">
-        <v>2015.115393042427</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>220.18296949591</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="C46" t="n">
-        <v>51.2467865680031</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="D46" t="n">
-        <v>51.2467865680031</v>
+        <v>233.5022562777486</v>
       </c>
       <c r="E46" t="n">
-        <v>51.2467865680031</v>
+        <v>85.5891626953555</v>
       </c>
       <c r="F46" t="n">
         <v>51.2467865680031</v>
@@ -7833,25 +7833,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S46" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T46" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U46" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V46" t="n">
-        <v>1092.643294372448</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W46" t="n">
-        <v>803.2261243354876</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X46" t="n">
-        <v>575.2365734374703</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y46" t="n">
-        <v>354.4439942939401</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>208.3214547517356</v>
+        <v>202.1809638361346</v>
       </c>
       <c r="L8" t="n">
-        <v>221.1666787354324</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M8" t="n">
-        <v>214.1012135983212</v>
+        <v>205.6249188705004</v>
       </c>
       <c r="N8" t="n">
-        <v>212.9051825663978</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O8" t="n">
-        <v>214.5102874732696</v>
+        <v>206.3768508508745</v>
       </c>
       <c r="P8" t="n">
-        <v>217.9290633046618</v>
+        <v>210.9873633211545</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429921</v>
+        <v>122.1984598562864</v>
       </c>
       <c r="M9" t="n">
-        <v>129.5917403577182</v>
+        <v>123.047446830095</v>
       </c>
       <c r="N9" t="n">
-        <v>118.4674613291454</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O9" t="n">
-        <v>130.8188201934042</v>
+        <v>124.673618687554</v>
       </c>
       <c r="P9" t="n">
-        <v>124.5219861368073</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8616,19 +8616,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.7148261097669</v>
+        <v>125.4955336943436</v>
       </c>
       <c r="M10" t="n">
-        <v>132.4205420186164</v>
+        <v>129.0262495446562</v>
       </c>
       <c r="N10" t="n">
-        <v>121.3349826493852</v>
+        <v>118.0213988638391</v>
       </c>
       <c r="O10" t="n">
-        <v>132.590766746692</v>
+        <v>129.5301358016631</v>
       </c>
       <c r="P10" t="n">
-        <v>132.7088230120157</v>
+        <v>130.0899244982092</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761156</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>2.051220519418294</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L12" t="n">
-        <v>97.32166909127284</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>2.051220519418237</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>129.4330134067484</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>99.37288961069086</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>26.19461818159743</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>63.37360602116108</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>30.36925650589473</v>
+        <v>54.95314511566545</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>45.44676101130828</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>224.3355197601774</v>
       </c>
       <c r="N27" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>186.4490126143852</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L33" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>162.0073097921339</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>211.0329012241563</v>
       </c>
       <c r="L36" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>186.5911984019046</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L39" t="n">
-        <v>342.9044714621884</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>186.5911984019046</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>168.7434581780634</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>342.9044714621885</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>162.0073097921331</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,16 +22561,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>415.2102214038314</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23035,16 +23035,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>415.1619485273195</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>206.909162189371</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852174</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644702</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,16 +23147,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703757</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839145</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871617</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23223,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.6870224659892</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>101.5590117695014</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>295.8616086872806</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.47975262776185</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2897156032232</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>263.3388457603581</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,25 +23339,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9074815185605871</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.92180400150561</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.042860059625838</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>200.8610509830094</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.0199616619743</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>118.2164900707555</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>35.79512724079275</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2897156032232</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.5240586545473</v>
+        <v>248.5744830267756</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>10.10262995851632</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>47.86881082231241</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>22.54475050117122</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>49.5515495799969</v>
       </c>
     </row>
     <row r="17">
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>118.2164900707555</v>
+        <v>142.8765597877062</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>149.1202946442037</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I17" t="n">
-        <v>115.3066195468971</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>152.7676931992223</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T17" t="n">
-        <v>212.2897156032232</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U17" t="n">
-        <v>18.86898237295591</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>122.5240586545473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>63.3914497248748</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I19" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J19" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S19" t="n">
-        <v>102.6914976300573</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T19" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>22.54475050117122</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>178.0073932966567</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>259.5693508582837</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>308.5974454495113</v>
+        <v>170.8952271801582</v>
       </c>
       <c r="I20" t="n">
-        <v>94.24014755885167</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>140.3157839734241</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.8976922291835</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1044530022292</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,22 +24053,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>141.7193093041456</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>18.48669329276123</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.79497562267738</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H22" t="n">
-        <v>47.22936319822057</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I22" t="n">
-        <v>114.7793764994862</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S22" t="n">
-        <v>200.4475243713015</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T22" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>236.2294516149985</v>
+        <v>133.4658694662301</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
@@ -24265,16 +24265,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8775105853574</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>178.0508199596881</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>72.41509594052189</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>295.3048169083859</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>124.8788305792205</v>
       </c>
       <c r="E28" t="n">
-        <v>90.50968817472402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,16 +24682,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>137.8884476379534</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247049</v>
+        <v>56.40971951191725</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>96.27076102970096</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>104.7965952039006</v>
@@ -24888,16 +24888,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>115.2459207102727</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
-        <v>251.045250128462</v>
+        <v>186.256149181055</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>161.4836137898365</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.4154405304724</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>147.2515091551289</v>
@@ -25125,7 +25125,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>226.2358910118251</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.267641164248175</v>
+        <v>171.1092240499966</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.045250128462</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>82.77095803881087</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>156.1786059160952</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>74.17671768909389</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
-        <v>301.0185525624054</v>
+        <v>87.09978287733898</v>
       </c>
       <c r="I38" t="n">
         <v>65.70991267247049</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>206.6581849802338</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25602,22 +25602,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>117.1563130515739</v>
       </c>
       <c r="X40" t="n">
-        <v>15.55691619637267</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>354.727924170964</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
-        <v>60.37549925450163</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>29.00453811424177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>12.57532704269616</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
         <v>194.6624603617375</v>
@@ -25842,16 +25842,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>65.01410056655135</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>46.93988625384219</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.91356563188748</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4220956568524</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
@@ -26073,10 +26073,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S46" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>338648.3274240561</v>
+        <v>340517.5585657064</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>340517.5585657064</v>
+        <v>340759.6475915663</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>558762.0660296227</v>
+        <v>836960.6327707081</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>558762.0660296228</v>
+        <v>836960.6327707079</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>558762.0660296229</v>
+        <v>836960.6327707078</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>676003.4514466372</v>
+        <v>836960.6327707078</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>836960.6327707078</v>
+        <v>836960.6327707079</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836960.6327707078</v>
+        <v>836960.6327707079</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>836960.6327707078</v>
+        <v>836960.6327707081</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836960.6327707081</v>
+        <v>836960.6327707079</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>86005.92442515711</v>
+        <v>87284.12715902133</v>
       </c>
       <c r="C2" t="n">
         <v>87284.12715902133</v>
       </c>
       <c r="D2" t="n">
-        <v>87284.12715902133</v>
+        <v>87764.84694186744</v>
       </c>
       <c r="E2" t="n">
-        <v>163173.2649576899</v>
+        <v>244777.3043954468</v>
       </c>
       <c r="F2" t="n">
-        <v>163173.2649576899</v>
+        <v>244777.3043954469</v>
       </c>
       <c r="G2" t="n">
-        <v>163173.26495769</v>
+        <v>244777.3043954468</v>
       </c>
       <c r="H2" t="n">
-        <v>197601.5443750086</v>
+        <v>244777.3043954468</v>
       </c>
       <c r="I2" t="n">
         <v>244777.3043954468</v>
@@ -26355,7 +26355,7 @@
         <v>244777.3043954468</v>
       </c>
       <c r="P2" t="n">
-        <v>244777.3043954468</v>
+        <v>244777.3043954469</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>20956.03230135573</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10283.71485718501</v>
       </c>
       <c r="E3" t="n">
-        <v>553583.7823998152</v>
+        <v>913558.8885951453</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>146682.6264239263</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>196797.6384037575</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65718.55375189534</v>
+        <v>159636.3024986581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>37323.75202478934</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48378.33248915087</v>
+        <v>45933.62940400945</v>
       </c>
       <c r="C4" t="n">
         <v>45933.62940400945</v>
       </c>
       <c r="D4" t="n">
-        <v>45933.62940400945</v>
+        <v>44553.28916276351</v>
       </c>
       <c r="E4" t="n">
-        <v>8280.976688028975</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="F4" t="n">
-        <v>8280.976688028974</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="G4" t="n">
-        <v>8280.976688028974</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="H4" t="n">
-        <v>9449.540518299062</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="I4" t="n">
-        <v>11359.04569987402</v>
+        <v>11359.04569987401</v>
       </c>
       <c r="J4" t="n">
         <v>11359.04569987402</v>
@@ -26453,10 +26453,10 @@
         <v>11359.04569987402</v>
       </c>
       <c r="N4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="O4" t="n">
-        <v>11359.04569987401</v>
+        <v>11359.04569987402</v>
       </c>
       <c r="P4" t="n">
         <v>11359.04569987401</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="C5" t="n">
         <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
-        <v>34129.29174257201</v>
+        <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>29420.2032042662</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="F5" t="n">
-        <v>29420.20320426621</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="G5" t="n">
-        <v>29420.20320426621</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="H5" t="n">
-        <v>41983.78525919239</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="I5" t="n">
         <v>59310.17243984471</v>
@@ -26505,10 +26505,10 @@
         <v>59310.17243984471</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="O5" t="n">
-        <v>59310.1724398447</v>
+        <v>59310.17243984471</v>
       </c>
       <c r="P5" t="n">
         <v>59310.17243984471</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3999.991936006234</v>
+        <v>-30025.5750176935</v>
       </c>
       <c r="C6" t="n">
-        <v>-13734.82628891587</v>
+        <v>-7849.580286728382</v>
       </c>
       <c r="D6" t="n">
-        <v>7221.20601243987</v>
+        <v>-16503.96187449839</v>
       </c>
       <c r="E6" t="n">
-        <v>-428111.6973344204</v>
+        <v>-744678.265061309</v>
       </c>
       <c r="F6" t="n">
-        <v>125472.0850653946</v>
+        <v>168880.6235338365</v>
       </c>
       <c r="G6" t="n">
-        <v>125472.0850653948</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="H6" t="n">
-        <v>-514.4078264092313</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="I6" t="n">
-        <v>-22689.55214802947</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="J6" t="n">
-        <v>174108.086255728</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="K6" t="n">
-        <v>174108.086255728</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="L6" t="n">
-        <v>174108.0862557281</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="M6" t="n">
-        <v>108389.5325038327</v>
+        <v>9244.321035178293</v>
       </c>
       <c r="N6" t="n">
-        <v>174108.0862557281</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="O6" t="n">
-        <v>174108.0862557281</v>
+        <v>168880.6235338364</v>
       </c>
       <c r="P6" t="n">
-        <v>136784.3342309388</v>
+        <v>168880.6235338364</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
         <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678932</v>
+        <v>35.02126071912533</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0550137694781</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="F3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="G3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="H3" t="n">
-        <v>749.98095649761</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175391</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
-        <v>263.7138800015063</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="G4" t="n">
-        <v>263.7138800015063</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="H4" t="n">
-        <v>421.6151382819818</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="I4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000387</v>
@@ -26822,13 +26822,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="M4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="N4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="N4" t="n">
-        <v>640.5848321000385</v>
-      </c>
       <c r="O4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P4" t="n">
         <v>640.5848321000387</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233601</v>
       </c>
       <c r="E3" t="n">
-        <v>591.0416310826888</v>
+        <v>899.0436313984139</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>135.9259427281316</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>184.0839356199291</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>218.9696938180569</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>157.9012582804758</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>157.9012582804756</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887678</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034957</v>
+        <v>5.427767452760119</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760343</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324493</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>14.5997362345548</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895154</v>
+        <v>24.72131435677232</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019311</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841718</v>
+        <v>23.72136057081217</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060769</v>
+        <v>20.24563243411506</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679517</v>
+        <v>8.843836255870379</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10821088633251</v>
+        <v>3.208229059847512</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.6163037941626979</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.07532874947132619</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.7275171330520188</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125436</v>
+        <v>2.593555628727678</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246498</v>
+        <v>7.11691487877999</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750212</v>
+        <v>12.16394109335884</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688213</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430018</v>
+        <v>19.0865870919233</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418792</v>
+        <v>19.59175225833409</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104019</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522959</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210532</v>
+        <v>9.615648792164375</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605564</v>
+        <v>4.676990252263569</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523841</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.004955838781008304</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.06315309310006206</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.5614884095623703</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047526</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>2.93401765828132</v>
+        <v>4.464923682174388</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166679</v>
+        <v>7.337241180170845</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471354</v>
+        <v>9.389142586894684</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988658</v>
+        <v>9.899534402948818</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847948</v>
+        <v>9.664145601394049</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150827</v>
+        <v>8.926402650179686</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131885</v>
+        <v>7.638079550938413</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705187</v>
+        <v>5.288210368587925</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473114</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750018</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.2698359432457196</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.003444714169094298</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.468562869425036</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H11" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I11" t="n">
-        <v>95.16927002350879</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388633</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0104541016252</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167917</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M11" t="n">
-        <v>433.4580399459292</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N11" t="n">
-        <v>440.4718441986831</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O11" t="n">
-        <v>415.9250721658378</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269072</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.577018565623</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R11" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702306</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T11" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.320797576787179</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H12" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990947</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J12" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919894</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7810703458304</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043655</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N12" t="n">
-        <v>343.5174364293989</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O12" t="n">
-        <v>314.2513427542725</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480711</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736543</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944813</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912173</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H13" t="n">
-        <v>9.845013171582787</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244974</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779067</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K13" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440335</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M13" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N13" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O13" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555595</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.7223070791912</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350554</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S13" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T13" t="n">
-        <v>4.73124354871565</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.468562869425037</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H14" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I14" t="n">
-        <v>95.16927002350883</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J14" t="n">
-        <v>209.5161878388634</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K14" t="n">
-        <v>314.0104541016253</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L14" t="n">
-        <v>389.5577350167918</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M14" t="n">
-        <v>433.4580399459293</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N14" t="n">
-        <v>440.4718441986832</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O14" t="n">
-        <v>415.925072165838</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P14" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q14" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R14" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S14" t="n">
-        <v>56.25237638702308</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T14" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H15" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I15" t="n">
-        <v>45.47482884990949</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J15" t="n">
-        <v>124.7864061472485</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7810703458305</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M15" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N15" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O15" t="n">
-        <v>314.2513427542726</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P15" t="n">
-        <v>252.2144074480713</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R15" t="n">
-        <v>82.00530919736546</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S15" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T15" t="n">
-        <v>5.323741109944815</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H16" t="n">
-        <v>9.84501317158279</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I16" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J16" t="n">
-        <v>78.28698101779069</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K16" t="n">
-        <v>128.6495586225235</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L16" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M16" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N16" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O16" t="n">
-        <v>156.5135631817681</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P16" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.72230707919122</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R16" t="n">
-        <v>49.78878849350556</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S16" t="n">
-        <v>19.29743379337852</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T16" t="n">
-        <v>4.731243548715652</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.468562869425037</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H17" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I17" t="n">
-        <v>95.16927002350883</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J17" t="n">
-        <v>209.5161878388634</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K17" t="n">
-        <v>314.0104541016253</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L17" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M17" t="n">
-        <v>433.4580399459293</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N17" t="n">
-        <v>440.4718441986832</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O17" t="n">
-        <v>415.925072165838</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P17" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q17" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R17" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S17" t="n">
-        <v>56.25237638702308</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T17" t="n">
-        <v>10.8061339609081</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H18" t="n">
-        <v>12.75612396528671</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I18" t="n">
-        <v>45.47482884990949</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J18" t="n">
-        <v>124.7864061472485</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K18" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L18" t="n">
-        <v>286.7810703458305</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M18" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N18" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O18" t="n">
-        <v>314.2513427542726</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P18" t="n">
-        <v>252.2144074480713</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q18" t="n">
-        <v>168.5986520825179</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R18" t="n">
-        <v>82.00530919736546</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S18" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T18" t="n">
-        <v>5.323741109944815</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H19" t="n">
-        <v>9.84501317158279</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I19" t="n">
-        <v>33.29990140244975</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J19" t="n">
-        <v>78.28698101779069</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K19" t="n">
-        <v>128.6495586225235</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L19" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M19" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N19" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O19" t="n">
-        <v>156.5135631817681</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P19" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q19" t="n">
-        <v>92.72230707919122</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R19" t="n">
-        <v>49.78878849350556</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S19" t="n">
-        <v>19.29743379337852</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T19" t="n">
-        <v>4.731243548715652</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.014998820090892</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H20" t="n">
-        <v>30.87735666625586</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I20" t="n">
-        <v>116.2357420115542</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J20" t="n">
-        <v>255.8942561066896</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K20" t="n">
-        <v>383.5191561611372</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L20" t="n">
-        <v>475.7894263014939</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M20" t="n">
-        <v>529.4074115682853</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N20" t="n">
-        <v>537.9737769658685</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O20" t="n">
-        <v>507.9933824485897</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P20" t="n">
-        <v>433.5605990775957</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q20" t="n">
-        <v>325.5859538330906</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R20" t="n">
-        <v>189.3909196325347</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S20" t="n">
-        <v>68.70428561282128</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T20" t="n">
-        <v>13.19815733494789</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2411999056072713</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.613166585674105</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H21" t="n">
-        <v>15.57979307743149</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I21" t="n">
-        <v>55.54104253307773</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J21" t="n">
-        <v>152.4088658859908</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K21" t="n">
-        <v>260.4910271261558</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L21" t="n">
-        <v>350.2623325605112</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M21" t="n">
-        <v>408.7396212911974</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N21" t="n">
-        <v>419.5577428240734</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O21" t="n">
-        <v>383.8133674257156</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P21" t="n">
-        <v>308.0440649433297</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q21" t="n">
-        <v>205.919299602891</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S21" t="n">
-        <v>29.96386179969223</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T21" t="n">
-        <v>6.502193386993428</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1061293806364543</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.352424675651428</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H22" t="n">
-        <v>12.02428484351907</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I22" t="n">
-        <v>40.67109842777204</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J22" t="n">
-        <v>95.61642456855594</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K22" t="n">
-        <v>157.1271577711386</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L22" t="n">
-        <v>201.0686649600314</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M22" t="n">
-        <v>211.9987152932506</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N22" t="n">
-        <v>206.9578596840045</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O22" t="n">
-        <v>191.15908051844</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P22" t="n">
-        <v>163.5696171351508</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.2471244311391</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R22" t="n">
-        <v>60.80993132519963</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S22" t="n">
-        <v>23.56907366567078</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T22" t="n">
-        <v>5.778541795965189</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07376861867189614</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217703</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664461</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7913200468045</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186564</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0587806020922</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441511</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7494305716377</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117352</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K12" t="n">
-        <v>75.43840481763041</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L12" t="n">
-        <v>245.548359657229</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823472</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460656</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O12" t="n">
-        <v>171.655098309828</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P12" t="n">
-        <v>118.2400000337409</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61687799649636</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K13" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L13" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M13" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N13" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O13" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P13" t="n">
-        <v>131.202951120453</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.560263827496811</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>28.47028331217712</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K14" t="n">
-        <v>93.92060305664472</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L14" t="n">
-        <v>153.7913200468046</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M14" t="n">
-        <v>203.1118067186566</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N14" t="n">
-        <v>211.0587806020923</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O14" t="n">
-        <v>185.8268607441513</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P14" t="n">
-        <v>123.7494305716378</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.27132869117364</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K15" t="n">
-        <v>75.4384048176305</v>
+        <v>316.0205096502332</v>
       </c>
       <c r="L15" t="n">
-        <v>148.2266905659563</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M15" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N15" t="n">
-        <v>212.1757243460657</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O15" t="n">
-        <v>171.6550983098281</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P15" t="n">
-        <v>118.240000033741</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q15" t="n">
-        <v>125.9385470877691</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K16" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L16" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M16" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N16" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O16" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P16" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.56026382749684</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>28.47028331217712</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K17" t="n">
-        <v>93.92060305664472</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L17" t="n">
-        <v>153.7913200468046</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M17" t="n">
-        <v>203.1118067186566</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N17" t="n">
-        <v>211.0587806020923</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O17" t="n">
-        <v>185.8268607441513</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P17" t="n">
-        <v>123.7494305716378</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q17" t="n">
-        <v>44.27132869117364</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>97.32166909127262</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K18" t="n">
-        <v>75.4384048176305</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L18" t="n">
-        <v>148.2266905659563</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M18" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N18" t="n">
-        <v>212.1757243460657</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O18" t="n">
-        <v>171.6550983098281</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P18" t="n">
-        <v>118.240000033741</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.61687799649641</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K19" t="n">
-        <v>106.3800667966406</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L19" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M19" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N19" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O19" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P19" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.56026382749684</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>74.84835158000331</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K20" t="n">
-        <v>163.4293051161566</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L20" t="n">
-        <v>240.0230113315067</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M20" t="n">
-        <v>299.0611783410126</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N20" t="n">
-        <v>308.5607133692776</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O20" t="n">
-        <v>277.895171026903</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P20" t="n">
-        <v>202.3276033223262</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q20" t="n">
-        <v>103.2802639586411</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>88.94484524048515</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K21" t="n">
-        <v>122.6495881517968</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L21" t="n">
-        <v>211.707952780637</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M21" t="n">
-        <v>266.6055873691791</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N21" t="n">
-        <v>288.2160307407401</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O21" t="n">
-        <v>241.2171229812711</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P21" t="n">
-        <v>174.0696575289995</v>
+        <v>418.4229873015965</v>
       </c>
       <c r="Q21" t="n">
-        <v>276.0148132527186</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.257244451883167</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K22" t="n">
-        <v>134.8576659452557</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L22" t="n">
-        <v>228.6586902203475</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M22" t="n">
-        <v>251.5825922550912</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N22" t="n">
-        <v>251.0900320632331</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O22" t="n">
-        <v>215.7442084324797</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P22" t="n">
-        <v>160.8481764000443</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q22" t="n">
-        <v>27.08508117944473</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P24" t="n">
-        <v>280.048785629427</v>
+        <v>304.6326742391977</v>
       </c>
       <c r="Q24" t="n">
         <v>326.5580100667036</v>
       </c>
       <c r="R24" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>108.4269819022257</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K27" t="n">
         <v>186.5874962434848</v>
@@ -36682,22 +36682,22 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820404</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="N27" t="n">
+        <v>391.1970995928739</v>
+      </c>
+      <c r="O27" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="O27" t="n">
-        <v>335.424681996123</v>
       </c>
       <c r="P27" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q27" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K30" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L30" t="n">
-        <v>297.6803606378501</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M30" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N30" t="n">
-        <v>577.6461122072591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O30" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P30" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R30" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K33" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L33" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M33" t="n">
         <v>366.9313322820404</v>
@@ -37165,13 +37165,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P33" t="n">
-        <v>411.6868389156661</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q33" t="n">
         <v>116.4807223308545</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676411</v>
       </c>
       <c r="L36" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820404</v>
@@ -37402,7 +37402,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P36" t="n">
-        <v>436.2707275254369</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q36" t="n">
         <v>116.4807223308545</v>
@@ -37624,10 +37624,10 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L39" t="n">
-        <v>640.5848321000385</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820404</v>
@@ -37639,7 +37639,7 @@
         <v>335.424681996123</v>
       </c>
       <c r="P39" t="n">
-        <v>436.2707275254369</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q39" t="n">
         <v>116.4807223308545</v>
@@ -37861,7 +37861,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3309544215482</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378501</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L45" t="n">
-        <v>640.5848321000387</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
         <v>366.9313322820406</v>
@@ -38113,13 +38113,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>411.6868389156654</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
